--- a/data/学業成績(情理)_2023.xlsx
+++ b/data/学業成績(情理)_2023.xlsx
@@ -580,7 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -637,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,6 +665,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -982,10 +985,10 @@
   <cols>
     <col min="1" max="1" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="10" width="13.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="10" width="13.005" customWidth="1" bestFit="1"/>
@@ -1012,7 +1015,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1032,7 +1035,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1052,7 +1055,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1072,7 +1075,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1092,7 +1095,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1132,7 +1135,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1152,7 +1155,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1172,7 +1175,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1192,7 +1195,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1212,7 +1215,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1232,7 +1235,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1272,7 +1275,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1292,7 +1295,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1312,7 +1315,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="23.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>

--- a/data/学業成績(情理)_2023.xlsx
+++ b/data/学業成績(情理)_2023.xlsx
@@ -580,7 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -637,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,9 +665,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -985,10 +982,10 @@
   <cols>
     <col min="1" max="1" style="9" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="10" width="13.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="10" width="13.005" customWidth="1" bestFit="1"/>
@@ -1015,7 +1012,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1035,7 +1032,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1055,7 +1052,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1075,7 +1072,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1095,7 +1092,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1115,7 +1112,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1135,7 +1132,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1155,7 +1152,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1175,7 +1172,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1195,7 +1192,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1215,7 +1212,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1235,7 +1232,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1255,7 +1252,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1275,7 +1272,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1295,7 +1292,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1315,7 +1312,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="7">
         <v>16</v>
       </c>
